--- a/Стратегия тестирования.xlsx
+++ b/Стратегия тестирования.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milor\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\V.A.Miloradov\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEE8A1E-349D-4960-A87D-D897AF83781F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="829" activeTab="4" xr2:uid="{EF161848-7C97-4829-BD7E-BA20AF1C0119}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="829" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Тест-план" sheetId="1" r:id="rId1"/>
@@ -20,12 +19,12 @@
     <sheet name="Тест-кейс Панин" sheetId="10" r:id="rId5"/>
     <sheet name="Тест-кейс Хорошев" sheetId="11" r:id="rId6"/>
     <sheet name="Дефект Милорадов" sheetId="5" r:id="rId7"/>
-    <sheet name="Дефект Ганиев" sheetId="7" r:id="rId8"/>
-    <sheet name="Дефект Панин" sheetId="9" r:id="rId9"/>
+    <sheet name="Дефект Панин-1" sheetId="7" r:id="rId8"/>
+    <sheet name="Дефект Панин-2" sheetId="9" r:id="rId9"/>
     <sheet name="Дефект Хорошев" sheetId="8" r:id="rId10"/>
     <sheet name="Отчёт" sheetId="6" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="201">
   <si>
     <t>Область функционала</t>
   </si>
@@ -328,10 +327,6 @@
     <t>Вложения:</t>
   </si>
   <si>
-    <t>Шаги воспроизведения:
-Ожидаемый результат:</t>
-  </si>
-  <si>
     <t>Отчёт о системном тестировании Neural Network Accelerator</t>
   </si>
   <si>
@@ -360,9 +355,6 @@
   </si>
   <si>
     <t>Приоритета Critical:</t>
-  </si>
-  <si>
-    <t>Приоритета High:</t>
   </si>
   <si>
     <t>Приоритета Major:</t>
@@ -391,9 +383,6 @@
   </si>
   <si>
     <t>Тест с неправильными данными</t>
-  </si>
-  <si>
-    <t>Максим Панин</t>
   </si>
   <si>
     <t>Функция ещё не разработана</t>
@@ -552,9 +541,6 @@
     <t>Обучение нейронной сети по первому алгоритму</t>
   </si>
   <si>
-    <t>Тест с неправильным введением числа нейронов на 1 слое</t>
-  </si>
-  <si>
     <t>Тест с неправильным введением числа слоёв:</t>
   </si>
   <si>
@@ -564,9 +550,6 @@
     <t>Обучение нейронной сети по второму алгоритму</t>
   </si>
   <si>
-    <t>Тест с неправильным вводом числа нейронок</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ввод: </t>
   </si>
   <si>
@@ -598,9 +581,6 @@
   </si>
   <si>
     <t>Протестирован, есть дефект</t>
-  </si>
-  <si>
-    <t>В жёлтых тестах программа не выдаёт ошибку в интерфейсе, но и не обрабатывает эти данные в консоли</t>
   </si>
   <si>
     <t>Открыть окно обучения</t>
@@ -730,12 +710,285 @@
   </si>
   <si>
     <t>1.0</t>
+  </si>
+  <si>
+    <t>Программа не выдаёт ошибку в интерфейсе, если вводится неправильное количетсво слоёв</t>
+  </si>
+  <si>
+    <t>Программа не выдаёт ошибку в интерфейсе, если вводится неправильное число нейронов на слоях</t>
+  </si>
+  <si>
+    <t>Тест с неправильным вводом числа повторов нейронки</t>
+  </si>
+  <si>
+    <t>Программа не выдаёт ошибку в интерфейсе, если вводится неправильное число повторов нейронки</t>
+  </si>
+  <si>
+    <t>В некоторых случаях при неправильном вводе числа слоёв и числа нейронов на слоях в интерфейсе не выдаётся ошибка</t>
+  </si>
+  <si>
+    <t>Обучение нейронной сети по 1 алгоритму</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Шаги воспроизведения:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.Открыть окно обучения нейронной сети
+2. Выбрать 1 алгоритм
+3. Ввести число слоёв (abcd) и число нейронов на этих слоях (5&amp;4&amp;2)
+4. Нажать ОК
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ожидаемый результат:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Выдача ошибка в ЭФ числа слоёв
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Наблюдаемый результат:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Программа не выдаёт ошибку в интерфейсе, но в консоли эти данные не обрабатываются</t>
+    </r>
+  </si>
+  <si>
+    <t>Не выдаётся ошибка при неправильных данных числа слоёв</t>
+  </si>
+  <si>
+    <t>Не выдаётся ошибка при неправильных данных числа нейронов</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Шаги воспроизведения:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.Открыть окно обучения нейронной сети
+2. Выбрать 1 алгоритм
+3. Ввести число слоёв (3) и число нейронов на этих слоях (abc)
+4. Нажать ОК
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ожидаемый результат:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Выдача ошибка в ЭФ числа нейронов
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Наблюдаемый результат:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Программа не выдаёт ошибку в интерфейсе, но в консоли эти данные не обрабатываются</t>
+    </r>
+  </si>
+  <si>
+    <t>Ошибка при введении неправильных данных числа повторений нейронки</t>
+  </si>
+  <si>
+    <t>NeuralnetworkAccelerator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обучение нейронной сети по 2 алгоритму </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Шаги воспроизведения:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.Открыть окно обучения нейронной сети
+2. Выбрать 2 алгоритм
+3. Ввести число повторений нейронки (abc)
+4. Нажать ОК
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ожидаемый результат:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Выдача ошибка в ЭФ числа повторений нейрокни
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Наблюдаемый результат:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Программа не выдаёт ошибку в интерфейсе, но в консоли эти данные не обрабатываются</t>
+    </r>
+  </si>
+  <si>
+    <t>Приоритета Blocker:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -856,7 +1109,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -914,12 +1167,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1293,7 +1540,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1503,55 +1750,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1583,6 +1782,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1901,7 +2145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8C0AB4-E842-40D4-871A-DD638A041331}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1920,14 +2164,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
@@ -1971,7 +2215,7 @@
         <v>0.5</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G5" s="34" t="s">
         <v>16</v>
@@ -1979,8 +2223,8 @@
       <c r="H5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="91" t="s">
-        <v>109</v>
+      <c r="I5" s="106" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1998,7 +2242,7 @@
         <v>0.5</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G6" s="34" t="s">
         <v>17</v>
@@ -2006,7 +2250,7 @@
       <c r="H6" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="92"/>
+      <c r="I6" s="107"/>
     </row>
     <row r="7" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
@@ -2031,7 +2275,7 @@
       <c r="H7" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="93"/>
+      <c r="I7" s="108"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
@@ -2055,18 +2299,18 @@
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I5:I7" r:id="rId1" display="NeuralNetwork.db" xr:uid="{501317CF-216D-4ACC-9802-91316E24C195}"/>
+    <hyperlink ref="I5:I7" r:id="rId1" display="NeuralNetwork.db"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D113C53-3CC2-4D4D-A0D8-6256CAF420EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2081,47 +2325,65 @@
       <c r="A1" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="C1" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="15">
+        <v>4</v>
+      </c>
       <c r="C2" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="4" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="C3" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="C4" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="22" t="s">
+        <v>28</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>88</v>
       </c>
@@ -2186,19 +2448,21 @@
         <v>78</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" ht="234.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>47</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>92</v>
+        <v>199</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2217,11 +2481,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A33B5E-BE4C-4049-8AA9-5B2F91AB8C29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2230,144 +2494,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
+      <c r="A1" s="120" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="103" t="s">
-        <v>191</v>
-      </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
+        <v>94</v>
+      </c>
+      <c r="B2" s="118" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="122">
+        <v>93</v>
+      </c>
+      <c r="B3" s="121">
         <v>44337</v>
       </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="103">
+        <v>95</v>
+      </c>
+      <c r="B4" s="118">
         <v>4</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
+        <v>96</v>
+      </c>
+      <c r="B6" s="118">
+        <v>20</v>
+      </c>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
+        <v>97</v>
+      </c>
+      <c r="B7" s="118">
+        <v>20</v>
+      </c>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
+        <v>98</v>
+      </c>
+      <c r="B8" s="118">
+        <v>10</v>
+      </c>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="103"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
+        <v>99</v>
+      </c>
+      <c r="B9" s="118">
+        <f>B7-B8</f>
+        <v>10</v>
+      </c>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
+        <v>100</v>
+      </c>
+      <c r="B11" s="118">
+        <v>4</v>
+      </c>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="103"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
+        <v>200</v>
+      </c>
+      <c r="B12" s="118">
+        <v>0</v>
+      </c>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
+        <v>101</v>
+      </c>
+      <c r="B13" s="118">
+        <v>3</v>
+      </c>
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="103"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
+        <v>102</v>
+      </c>
+      <c r="B14" s="118">
+        <v>1</v>
+      </c>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" s="103"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
+        <v>103</v>
+      </c>
+      <c r="B15" s="118">
+        <v>0</v>
+      </c>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="103"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
+        <v>104</v>
+      </c>
+      <c r="B16" s="118">
+        <v>0</v>
+      </c>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
@@ -2377,17 +2655,24 @@
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B23C16A-F178-45D8-9CD5-B1BC828AF696}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2402,24 +2687,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="97"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="112"/>
       <c r="D1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="101" t="s">
+      <c r="I1" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="98"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="100"/>
+      <c r="A2" s="113"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="115"/>
       <c r="D2" s="10">
         <v>44337</v>
       </c>
@@ -2444,7 +2729,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="32" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K3" s="31" t="s">
         <v>89</v>
@@ -2456,47 +2741,74 @@
         <v>24</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D4" s="12"/>
+      <c r="I4" s="16">
+        <v>2</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="K4" s="49" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="39" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D5" s="44"/>
+      <c r="I5" s="16">
+        <v>3</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="K5" s="49" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="39" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D6" s="44"/>
+      <c r="I6" s="16">
+        <v>4</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="K6" s="49" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="38" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D7" s="44"/>
     </row>
     <row r="8" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="39" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D8" s="46"/>
     </row>
@@ -2513,17 +2825,17 @@
     <row r="10" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="38" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D10" s="44"/>
     </row>
     <row r="11" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>31</v>
@@ -2533,7 +2845,7 @@
     <row r="12" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="39" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>33</v>
@@ -2545,16 +2857,16 @@
     <row r="13" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="39" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D13" s="44"/>
     </row>
     <row r="14" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -2563,151 +2875,171 @@
     <row r="15" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="45" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="D15" s="106"/>
-    </row>
-    <row r="16" spans="1:11" ht="79.5" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+      <c r="D15" s="91"/>
+    </row>
+    <row r="16" spans="1:11" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
       <c r="B16" s="45" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="D16" s="107"/>
-      <c r="F16" s="108" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="D16" s="47">
+        <v>2</v>
+      </c>
+      <c r="F16" s="92"/>
+    </row>
+    <row r="17" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="45" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="D17" s="107"/>
+        <v>159</v>
+      </c>
+      <c r="D17" s="47">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="45" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="D18" s="107"/>
+        <v>160</v>
+      </c>
+      <c r="D18" s="47">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="45" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="D19" s="107"/>
+        <v>167</v>
+      </c>
+      <c r="D19" s="47">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="45" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="D20" s="107"/>
+        <v>166</v>
+      </c>
+      <c r="D20" s="47">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="45" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="D21" s="107"/>
+        <v>165</v>
+      </c>
+      <c r="D21" s="47">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="45" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="D22" s="107"/>
+        <v>164</v>
+      </c>
+      <c r="D22" s="47">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="45" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="D23" s="107"/>
+        <v>163</v>
+      </c>
+      <c r="D23" s="47">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="45" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="D24" s="107"/>
+        <v>161</v>
+      </c>
+      <c r="D24" s="47">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="69" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D25" s="44"/>
     </row>
     <row r="26" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="45" t="s">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D27" s="107"/>
-    </row>
-    <row r="28" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="D27" s="47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="45" t="s">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D28" s="107"/>
+        <v>138</v>
+      </c>
+      <c r="D28" s="47">
+        <v>4</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="69" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D29" s="44"/>
     </row>
@@ -2717,7 +3049,7 @@
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D30" s="12"/>
     </row>
@@ -2774,7 +3106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866B27BD-54CC-415B-919A-4A70C641EC4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2812,7 +3144,7 @@
         <v>47</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>43</v>
@@ -2840,7 +3172,7 @@
         <v>49</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>45</v>
@@ -2850,11 +3182,11 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
       <c r="D6" s="28">
         <v>2</v>
       </c>
@@ -2926,10 +3258,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D9" s="31">
         <v>1</v>
@@ -2941,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H9" s="24"/>
     </row>
@@ -2953,7 +3285,7 @@
         <v>54</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D10" s="31">
         <v>0</v>
@@ -2965,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H10" s="52">
         <v>1</v>
@@ -3006,10 +3338,10 @@
     <row r="13" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>58</v>
@@ -3063,10 +3395,10 @@
         <v>69</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -3155,11 +3487,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79EABDED-1C7B-44BA-A050-4EB5A0BF9444}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3192,7 +3524,7 @@
         <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>43</v>
@@ -3218,7 +3550,7 @@
         <v>49</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>45</v>
@@ -3228,11 +3560,11 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
       <c r="D6" s="28">
         <v>3</v>
       </c>
@@ -3280,10 +3612,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D8" s="49">
         <v>1</v>
@@ -3307,7 +3639,7 @@
         <v>53</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D9" s="49">
         <v>1</v>
@@ -3319,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -3331,7 +3663,7 @@
         <v>54</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D10" s="49">
         <v>1</v>
@@ -3343,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H10" s="1"/>
     </row>
@@ -3367,7 +3699,7 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="24" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="57"/>
@@ -3387,7 +3719,7 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="24" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>58</v>
@@ -3399,7 +3731,7 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>62</v>
@@ -3421,11 +3753,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06B166C-77E0-4FB5-A37C-85CBD09E8019}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="A13:B24"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3443,7 +3775,7 @@
         <v>46</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C1" s="26" t="s">
         <v>42</v>
@@ -3457,7 +3789,7 @@
         <v>47</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>43</v>
@@ -3483,7 +3815,7 @@
         <v>49</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>45</v>
@@ -3493,16 +3825,16 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="102" t="s">
-        <v>158</v>
-      </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
+      <c r="A6" s="117" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
       <c r="D6" s="70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="70">
         <v>0</v>
@@ -3511,7 +3843,7 @@
         <v>50</v>
       </c>
       <c r="H6" s="66">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3545,10 +3877,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D8" s="31">
         <v>1</v>
@@ -3560,7 +3892,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="H8" s="24"/>
     </row>
@@ -3569,10 +3901,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D9" s="31">
         <v>1</v>
@@ -3584,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H9" s="24"/>
     </row>
@@ -3593,10 +3925,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D10" s="31">
         <v>1</v>
@@ -3608,59 +3940,61 @@
         <v>0</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H10" s="52"/>
     </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="37">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D11" s="49">
+        <v>0</v>
+      </c>
+      <c r="E11" s="49">
         <v>1</v>
-      </c>
-      <c r="E11" s="49">
-        <v>0</v>
       </c>
       <c r="F11" s="49">
         <v>0</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="H11" s="1"/>
+        <v>190</v>
+      </c>
+      <c r="H11" s="16">
+        <v>2.2999999999999998</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>55</v>
       </c>
       <c r="B13" s="70" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C13" s="70" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="31"/>
-      <c r="C14" s="109" t="s">
-        <v>183</v>
+      <c r="C14" s="93" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="31" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C15" s="71" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -3669,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="71" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -3684,8 +4018,8 @@
       <c r="B18" s="49">
         <v>3</v>
       </c>
-      <c r="C18" s="110" t="s">
-        <v>185</v>
+      <c r="C18" s="94" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -3702,8 +4036,8 @@
       <c r="B20" s="31">
         <v>3</v>
       </c>
-      <c r="C20" s="111" t="s">
-        <v>186</v>
+      <c r="C20" s="95" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -3711,8 +4045,8 @@
       <c r="B21" s="31">
         <v>3</v>
       </c>
-      <c r="C21" s="111" t="s">
-        <v>187</v>
+      <c r="C21" s="95" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -3720,8 +4054,8 @@
       <c r="B22" s="31">
         <v>3</v>
       </c>
-      <c r="C22" s="111" t="s">
-        <v>188</v>
+      <c r="C22" s="95" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -3729,8 +4063,8 @@
       <c r="B23" s="31">
         <v>3</v>
       </c>
-      <c r="C23" s="111" t="s">
-        <v>189</v>
+      <c r="C23" s="95" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -3738,8 +4072,8 @@
       <c r="B24" s="31">
         <v>3</v>
       </c>
-      <c r="C24" s="111" t="s">
-        <v>183</v>
+      <c r="C24" s="95" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3747,6 +4081,7 @@
     <mergeCell ref="A6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="C21" twoDigitTextYear="1"/>
   </ignoredErrors>
@@ -3754,11 +4089,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29033E6B-E631-435A-8F38-04AD9C79D8D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3776,7 +4111,7 @@
         <v>46</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C1" s="26" t="s">
         <v>42</v>
@@ -3790,7 +4125,7 @@
         <v>47</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>43</v>
@@ -3816,7 +4151,7 @@
         <v>49</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>45</v>
@@ -3826,16 +4161,16 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="102" t="s">
-        <v>158</v>
-      </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
+      <c r="A6" s="117" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
       <c r="D6" s="70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="70">
         <v>0</v>
@@ -3844,7 +4179,7 @@
         <v>50</v>
       </c>
       <c r="H6" s="66">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3878,10 +4213,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D8" s="31">
         <v>1</v>
@@ -3893,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="H8" s="24"/>
     </row>
@@ -3902,10 +4237,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D9" s="31">
         <v>1</v>
@@ -3917,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H9" s="24"/>
     </row>
@@ -3926,10 +4261,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D10" s="31">
         <v>1</v>
@@ -3941,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H10" s="52"/>
     </row>
@@ -3950,31 +4285,33 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D11" s="31">
+        <v>0</v>
+      </c>
+      <c r="E11" s="31">
         <v>1</v>
-      </c>
-      <c r="E11" s="31">
-        <v>0</v>
       </c>
       <c r="F11" s="31">
         <v>0</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="H11" s="1"/>
+        <v>156</v>
+      </c>
+      <c r="H11" s="16">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>55</v>
       </c>
       <c r="B13" s="70" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -3984,53 +4321,53 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="31" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="112"/>
-      <c r="B16" s="113">
+      <c r="A16" s="96"/>
+      <c r="B16" s="97">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="115"/>
+      <c r="A17" s="99"/>
       <c r="B17" s="85"/>
       <c r="C17" s="64"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="117"/>
-      <c r="B18" s="118"/>
+      <c r="A18" s="101"/>
+      <c r="B18" s="102"/>
       <c r="C18" s="64"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="55"/>
-      <c r="B19" s="119"/>
+      <c r="B19" s="103"/>
       <c r="C19" s="64"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="55"/>
-      <c r="B20" s="119"/>
+      <c r="B20" s="103"/>
       <c r="C20" s="64"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="55"/>
-      <c r="B21" s="121"/>
+      <c r="B21" s="105"/>
       <c r="C21" s="64"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="55"/>
-      <c r="B22" s="120"/>
+      <c r="B22" s="104"/>
       <c r="C22" s="64"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="55"/>
-      <c r="B23" s="121"/>
+      <c r="B23" s="105"/>
       <c r="C23" s="64"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="55"/>
-      <c r="B24" s="120"/>
+      <c r="B24" s="104"/>
       <c r="C24" s="64"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -4039,15 +4376,15 @@
       <c r="C25" s="64"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="114"/>
+      <c r="A26" s="98"/>
       <c r="B26" s="62"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="116"/>
+      <c r="A27" s="100"/>
       <c r="B27" s="64"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="116"/>
+      <c r="A28" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4058,11 +4395,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49315F8-72F1-472D-ADC8-20F337D71C21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4078,13 +4415,13 @@
         <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>79</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4106,7 +4443,7 @@
         <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>81</v>
@@ -4211,7 +4548,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>16</v>
@@ -4222,7 +4559,7 @@
         <v>47</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -4241,11 +4578,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D446CC-D655-4B78-B40C-023EF8766805}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4256,51 +4593,69 @@
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="C1" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="15">
+        <v>2</v>
+      </c>
       <c r="C2" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="4" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="C3" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="C4" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="22" t="s">
+        <v>28</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>88</v>
       </c>
@@ -4365,19 +4720,21 @@
         <v>78</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="251.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>47</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>92</v>
+        <v>192</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -4396,11 +4753,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{159D78C2-9BBA-4794-8511-307C2BD840A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4411,51 +4768,69 @@
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="C1" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="15">
+        <v>3</v>
+      </c>
       <c r="C2" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="4" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="C3" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="C4" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="22" t="s">
+        <v>28</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>88</v>
       </c>
@@ -4520,19 +4895,21 @@
         <v>78</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>47</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>92</v>
+        <v>195</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>

--- a/Стратегия тестирования.xlsx
+++ b/Стратегия тестирования.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="202">
   <si>
     <t>Область функционала</t>
   </si>
@@ -589,16 +589,10 @@
     <t>Открылось окно обучения</t>
   </si>
   <si>
-    <t>Выбрать первый алгоритм обучения и нажать ОК</t>
-  </si>
-  <si>
     <t>Открылось окно обучения по первому алгоритму</t>
   </si>
   <si>
     <t>Число шагов по статусам: 4</t>
-  </si>
-  <si>
-    <t>Ввести количество слоёв одним числом и количество нейронов на этих слоях через амперсанд и нажать ОК</t>
   </si>
   <si>
     <t>В поле слоёв отображается число слоёв, в поле нейронов отображается число нейронов через амперсанд</t>
@@ -664,18 +658,12 @@
     <t>Протестирован, есть недочёты</t>
   </si>
   <si>
-    <t>Выбрать второй алгоритм обучения и нажать ОК</t>
-  </si>
-  <si>
     <t>Открылось окно обучения по второму алгоритму</t>
   </si>
   <si>
     <t>В поле повторений отображается число повторений</t>
   </si>
   <si>
-    <t>Ввести число повторений нейронной сети</t>
-  </si>
-  <si>
     <t>Число слоёв</t>
   </si>
   <si>
@@ -709,9 +697,6 @@
     <t>Число повторений</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
     <t>Программа не выдаёт ошибку в интерфейсе, если вводится неправильное количетсво слоёв</t>
   </si>
   <si>
@@ -730,168 +715,10 @@
     <t>Обучение нейронной сети по 1 алгоритму</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Шаги воспроизведения:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1.Открыть окно обучения нейронной сети
-2. Выбрать 1 алгоритм
-3. Ввести число слоёв (abcd) и число нейронов на этих слоях (5&amp;4&amp;2)
-4. Нажать ОК
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ожидаемый результат:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Выдача ошибка в ЭФ числа слоёв
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Наблюдаемый результат:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Программа не выдаёт ошибку в интерфейсе, но в консоли эти данные не обрабатываются</t>
-    </r>
-  </si>
-  <si>
     <t>Не выдаётся ошибка при неправильных данных числа слоёв</t>
   </si>
   <si>
     <t>Не выдаётся ошибка при неправильных данных числа нейронов</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Шаги воспроизведения:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1.Открыть окно обучения нейронной сети
-2. Выбрать 1 алгоритм
-3. Ввести число слоёв (3) и число нейронов на этих слоях (abc)
-4. Нажать ОК
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ожидаемый результат:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Выдача ошибка в ЭФ числа нейронов
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Наблюдаемый результат:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Программа не выдаёт ошибку в интерфейсе, но в консоли эти данные не обрабатываются</t>
-    </r>
   </si>
   <si>
     <t>Ошибка при введении неправильных данных числа повторений нейронки</t>
@@ -983,6 +810,182 @@
   </si>
   <si>
     <t>Приоритета Blocker:</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выбрать первый алгоритм обучения </t>
+  </si>
+  <si>
+    <t>Ввести количество слоёв одним числом и количество нейронов на этих слоях через амперсанд и нажать ОК. Данные для ввода взять из списка значений.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выбрать второй алгоритм обучения </t>
+  </si>
+  <si>
+    <t>Ввести число повторений нейронной сети. Данные взять из списка значений.</t>
+  </si>
+  <si>
+    <t>В консоли отображается сообщение об ошибке. В интерфейсе не выдаётся ошибка о формате вводимых данных.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Шаги воспроизведения:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.Открыть окно обучения нейронной сети
+2. Выбрать 1 алгоритм
+3. Ввести число слоёв (abcd) и число нейронов на этих слоях (5&amp;4&amp;2)
+4. Нажать ОК
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ожидаемый результат:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Выдача ошибки в ЭФ числа слоёв
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Наблюдаемый результат:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Программа не выдаёт ошибку в интерфейсе, но в консоли эти данные не обрабатываются</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Шаги воспроизведения:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.Открыть окно обучения нейронной сети
+2. Выбрать 1 алгоритм
+3. Ввести число слоёв (3) и число нейронов на этих слоях (abc)
+4. Нажать ОК
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ожидаемый результат:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Выдача ошибки в ЭФ числа нейронов
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Наблюдаемый результат:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Программа не выдаёт ошибку в интерфейсе, но в консоли эти данные не обрабатываются</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2242,7 +2245,7 @@
         <v>0.5</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G6" s="34" t="s">
         <v>17</v>
@@ -2310,7 +2313,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2326,7 +2329,7 @@
         <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>79</v>
@@ -2346,7 +2349,7 @@
         <v>82</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2354,7 +2357,7 @@
         <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>81</v>
@@ -2447,8 +2450,8 @@
       <c r="A11" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
+      <c r="B11" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>105</v>
@@ -2462,7 +2465,7 @@
         <v>47</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2485,7 +2488,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2506,7 +2509,7 @@
         <v>94</v>
       </c>
       <c r="B2" s="118" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="C2" s="118"/>
       <c r="D2" s="118"/>
@@ -2596,7 +2599,7 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B12" s="118">
         <v>0</v>
@@ -2748,7 +2751,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="K4" s="49" t="s">
         <v>88</v>
@@ -2767,7 +2770,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="K5" s="49" t="s">
         <v>88</v>
@@ -2786,7 +2789,7 @@
         <v>4</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K6" s="49" t="s">
         <v>88</v>
@@ -2878,7 +2881,7 @@
         <v>134</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D15" s="91"/>
     </row>
@@ -2888,7 +2891,7 @@
         <v>134</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D16" s="47">
         <v>2</v>
@@ -2901,7 +2904,7 @@
         <v>134</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D17" s="47">
         <v>2</v>
@@ -2913,7 +2916,7 @@
         <v>135</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D18" s="47">
         <v>3</v>
@@ -2925,7 +2928,7 @@
         <v>135</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D19" s="47">
         <v>3</v>
@@ -2937,7 +2940,7 @@
         <v>135</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D20" s="47">
         <v>3</v>
@@ -2949,7 +2952,7 @@
         <v>135</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D21" s="47">
         <v>3</v>
@@ -2961,7 +2964,7 @@
         <v>135</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D22" s="47">
         <v>3</v>
@@ -2973,7 +2976,7 @@
         <v>135</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D23" s="47">
         <v>3</v>
@@ -2985,7 +2988,7 @@
         <v>135</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D24" s="47">
         <v>3</v>
@@ -2997,7 +3000,7 @@
         <v>109</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D25" s="44"/>
     </row>
@@ -3012,7 +3015,7 @@
     <row r="27" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="45" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>137</v>
@@ -3024,7 +3027,7 @@
     <row r="28" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="45" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>138</v>
@@ -3491,7 +3494,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3756,8 +3759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3808,14 +3811,16 @@
       <c r="C3" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="51"/>
+      <c r="D3" s="51">
+        <v>2.2999999999999998</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>45</v>
@@ -3826,7 +3831,7 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="117" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B6" s="117"/>
       <c r="C6" s="117"/>
@@ -3901,10 +3906,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="32" t="s">
         <v>150</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>151</v>
       </c>
       <c r="D9" s="31">
         <v>1</v>
@@ -3916,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H9" s="24"/>
     </row>
@@ -3925,10 +3930,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D10" s="31">
         <v>1</v>
@@ -3940,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H10" s="52"/>
     </row>
@@ -3949,10 +3954,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D11" s="49">
         <v>0</v>
@@ -3964,7 +3969,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H11" s="16">
         <v>2.2999999999999998</v>
@@ -3975,26 +3980,26 @@
         <v>55</v>
       </c>
       <c r="B13" s="70" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C13" s="70" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="31"/>
       <c r="C14" s="93" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="31" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C15" s="71" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -4003,7 +4008,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="71" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -4019,7 +4024,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="94" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -4037,7 +4042,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="95" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -4046,7 +4051,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="95" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -4055,7 +4060,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="95" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -4064,7 +4069,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="95" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -4073,7 +4078,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="95" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -4093,7 +4098,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4125,7 +4130,7 @@
         <v>47</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>43</v>
@@ -4144,14 +4149,16 @@
       <c r="C3" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="51"/>
+      <c r="D3" s="51">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>45</v>
@@ -4162,7 +4169,7 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="117" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B6" s="117"/>
       <c r="C6" s="117"/>
@@ -4237,10 +4244,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D9" s="31">
         <v>1</v>
@@ -4252,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H9" s="24"/>
     </row>
@@ -4261,10 +4268,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D10" s="31">
         <v>1</v>
@@ -4276,19 +4283,19 @@
         <v>0</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H10" s="52"/>
     </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="37">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D11" s="31">
         <v>0</v>
@@ -4300,7 +4307,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="H11" s="16">
         <v>4</v>
@@ -4311,7 +4318,7 @@
         <v>55</v>
       </c>
       <c r="B13" s="70" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4321,7 +4328,7 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="31" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -4582,7 +4589,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4598,7 +4605,7 @@
         <v>73</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>79</v>
@@ -4618,7 +4625,7 @@
         <v>82</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -4734,7 +4741,7 @@
         <v>47</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -4757,7 +4764,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4773,7 +4780,7 @@
         <v>73</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>79</v>
@@ -4793,7 +4800,7 @@
         <v>82</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -4895,7 +4902,7 @@
         <v>78</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>105</v>
@@ -4909,7 +4916,7 @@
         <v>47</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
